--- a/data_for_testing/Itens_Errados.xlsx
+++ b/data_for_testing/Itens_Errados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LearningSeleniumAndPython\data_for_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381A6EA-58DE-41EC-902F-C78D22AB3138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A29CB1-6C7C-4826-A6E2-C3D88C29B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0A95BE3-438A-4836-A95B-841956371AF9}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Geolab</t>
   </si>
@@ -39,12 +33,6 @@
     <t>Brainfarma</t>
   </si>
   <si>
-    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
-  </si>
-  <si>
-    <t>Vitamedic</t>
-  </si>
-  <si>
     <t>CARBONATO DE CALCIO 500MG</t>
   </si>
   <si>
@@ -54,12 +42,6 @@
     <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
   </si>
   <si>
-    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
-  </si>
-  <si>
-    <t>Nova Química</t>
-  </si>
-  <si>
     <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
   </si>
   <si>
@@ -72,12 +54,6 @@
     <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
   </si>
   <si>
-    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
-  </si>
-  <si>
-    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
-  </si>
-  <si>
     <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
   </si>
   <si>
@@ -96,21 +72,12 @@
     <t>LORATADINA 10MG</t>
   </si>
   <si>
-    <t>METRONIDAZOL 400 MG</t>
-  </si>
-  <si>
-    <t>Multilab</t>
-  </si>
-  <si>
     <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
   </si>
   <si>
     <t>Nativita</t>
   </si>
   <si>
-    <t>SINVASTATINA 20 MG</t>
-  </si>
-  <si>
     <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
   </si>
   <si>
@@ -129,22 +96,13 @@
     <t>MARCA</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
     <t>Dosagem Errada</t>
   </si>
   <si>
     <t>Não encontrado</t>
   </si>
   <si>
-    <t>OFLOXACINO</t>
-  </si>
-  <si>
     <t>Medicamento errado</t>
-  </si>
-  <si>
-    <t>LIPISTATINA</t>
   </si>
 </sst>
 </file>
@@ -500,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8763585F-B7DD-4A15-A86A-832E4CEB62E2}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,158 +473,158 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -675,119 +633,21 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>137</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
